--- a/va_facility_data_2025-02-20/Charlotte Hall VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Charlotte%20Hall%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Charlotte Hall VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Charlotte%20Hall%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R1d4dd3fa9ce94e7185e2fcdb0cab07ad"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R1f01ba9e024b4022aa9697040231f426"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rc5cdf4dc0a4b436f93bc344bb075928b"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Re253d69098f8457d893bdfd6f85fb469"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R0ac42fd981b940f49a353ce37ca7b2e7"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rb4275d314437409eb6b7d343ca83bad1"/>
   </x:sheets>
 </x:workbook>
 </file>
